--- a/Scalability/Scalability.xlsx
+++ b/Scalability/Scalability.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My notes\UW\HPDIC Lab\OPDR\PCA vs DW_PMAD\PCA vs DW_PMAD\Scalability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE814D2-41BC-471E-8A22-084E45C5E103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C14C635-F216-42E4-BF75-EB4267779476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-330" yWindow="2970" windowWidth="26055" windowHeight="17775" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4965" yWindow="810" windowWidth="26055" windowHeight="17775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Isolet 0.2 ratio" sheetId="1" r:id="rId1"/>
-    <sheet name="PBMC3k 0.2 ratio" sheetId="2" r:id="rId2"/>
-    <sheet name="Fasttext 0.1 ratio" sheetId="3" r:id="rId3"/>
+    <sheet name="Isolet 0.6 ratio" sheetId="1" r:id="rId1"/>
+    <sheet name="PBMC3k 0.6 ratio" sheetId="2" r:id="rId2"/>
+    <sheet name="Fasttext 0.6 ratio" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -378,8 +378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,7 +932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA24C002-187C-4F4D-AF28-6B9CF00B0B0E}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
